--- a/story_0/story0.xlsx
+++ b/story_0/story0.xlsx
@@ -67,10 +67,10 @@
     <t>FC_End_Date_change</t>
   </si>
   <si>
+    <t>MV B</t>
+  </si>
+  <si>
     <t>MV A</t>
-  </si>
-  <si>
-    <t>MV B</t>
   </si>
   <si>
     <t>MV C</t>
@@ -505,25 +505,25 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>43871</v>
+        <v>43882</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="F2">
-        <v>159386</v>
+        <v>145095</v>
       </c>
       <c r="G2">
         <v>15000</v>
       </c>
       <c r="H2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -535,22 +535,22 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>43871</v>
+        <v>43882</v>
       </c>
       <c r="M2" s="2">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="N2" s="2">
-        <v>43872</v>
+        <v>43883</v>
       </c>
       <c r="O2" s="2">
-        <v>43872</v>
+        <v>43883</v>
       </c>
       <c r="P2" s="2">
-        <v>43883</v>
+        <v>43893</v>
       </c>
       <c r="Q2" s="2">
-        <v>43878</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -558,25 +558,25 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>43882</v>
+        <v>43871</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>43892</v>
+        <v>43881</v>
       </c>
       <c r="F3">
-        <v>145095</v>
+        <v>159386</v>
       </c>
       <c r="G3">
         <v>15000</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>43883</v>
       </c>
       <c r="P3" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="Q3" s="2">
-        <v>43893</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>43893</v>
+        <v>43886</v>
       </c>
       <c r="M4" s="2">
-        <v>43903</v>
+        <v>43896</v>
       </c>
       <c r="N4" s="2">
         <v>43894</v>
@@ -694,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43904</v>
+        <v>43915</v>
       </c>
       <c r="M5" s="2">
-        <v>43914</v>
+        <v>43925</v>
       </c>
       <c r="N5" s="2">
-        <v>43905</v>
+        <v>43916</v>
       </c>
       <c r="O5" s="2">
-        <v>43905</v>
+        <v>43916</v>
       </c>
       <c r="P5" s="2">
-        <v>43912</v>
+        <v>43923</v>
       </c>
       <c r="Q5" s="2">
-        <v>43912</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="6" spans="1:17">

--- a/story_0/story0.xlsx
+++ b/story_0/story0.xlsx
@@ -67,10 +67,10 @@
     <t>FC_End_Date_change</t>
   </si>
   <si>
+    <t>MV A</t>
+  </si>
+  <si>
     <t>MV B</t>
-  </si>
-  <si>
-    <t>MV A</t>
   </si>
   <si>
     <t>MV C</t>
@@ -505,25 +505,25 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>43882</v>
+        <v>43871</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43892</v>
+        <v>43881</v>
       </c>
       <c r="F2">
-        <v>145095</v>
+        <v>159386</v>
       </c>
       <c r="G2">
         <v>15000</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -535,22 +535,22 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>43882</v>
+        <v>43871</v>
       </c>
       <c r="M2" s="2">
-        <v>43892</v>
+        <v>43881</v>
       </c>
       <c r="N2" s="2">
+        <v>43872</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43872</v>
+      </c>
+      <c r="P2" s="2">
         <v>43883</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>43883</v>
-      </c>
-      <c r="P2" s="2">
-        <v>43893</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>43893</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -558,25 +558,25 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>43871</v>
+        <v>43882</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="F3">
-        <v>159386</v>
+        <v>145095</v>
       </c>
       <c r="G3">
         <v>15000</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>43894</v>
       </c>
       <c r="Q3" s="2">
-        <v>43889</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>43886</v>
+        <v>43893</v>
       </c>
       <c r="M4" s="2">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="N4" s="2">
         <v>43894</v>
@@ -656,7 +656,7 @@
         <v>43907</v>
       </c>
       <c r="Q4" s="2">
-        <v>43901</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -694,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43915</v>
+        <v>43904</v>
       </c>
       <c r="M5" s="2">
-        <v>43925</v>
+        <v>43914</v>
       </c>
       <c r="N5" s="2">
-        <v>43916</v>
+        <v>43905</v>
       </c>
       <c r="O5" s="2">
-        <v>43916</v>
+        <v>43905</v>
       </c>
       <c r="P5" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="Q5" s="2">
-        <v>43923</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -762,7 +762,7 @@
         <v>43927</v>
       </c>
       <c r="Q6" s="2">
-        <v>43922</v>
+        <v>43927</v>
       </c>
     </row>
   </sheetData>

--- a/story_0/story0.xlsx
+++ b/story_0/story0.xlsx
@@ -508,49 +508,49 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>43871</v>
+        <v>43886</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43881</v>
+        <v>43896</v>
       </c>
       <c r="F2">
-        <v>159386</v>
+        <v>70000</v>
       </c>
       <c r="G2">
         <v>15000</v>
       </c>
       <c r="H2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="M2" s="2">
-        <v>43881</v>
+        <v>43904</v>
       </c>
       <c r="N2" s="2">
-        <v>43872</v>
+        <v>43895</v>
       </c>
       <c r="O2" s="2">
-        <v>43872</v>
+        <v>43895</v>
       </c>
       <c r="P2" s="2">
-        <v>43883</v>
+        <v>43900</v>
       </c>
       <c r="Q2" s="2">
-        <v>43883</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -561,49 +561,49 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>43882</v>
+        <v>43897</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>43892</v>
+        <v>43907</v>
       </c>
       <c r="F3">
-        <v>145095</v>
+        <v>70000</v>
       </c>
       <c r="G3">
         <v>15000</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>43882</v>
+        <v>43897</v>
       </c>
       <c r="M3" s="2">
-        <v>43892</v>
+        <v>43907</v>
       </c>
       <c r="N3" s="2">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="O3" s="2">
-        <v>43883</v>
+        <v>43898</v>
       </c>
       <c r="P3" s="2">
-        <v>43894</v>
+        <v>43903</v>
       </c>
       <c r="Q3" s="2">
-        <v>43894</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -614,49 +614,49 @@
         <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>43893</v>
+        <v>43898</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>43903</v>
+        <v>43908</v>
       </c>
       <c r="F4">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="G4">
         <v>15000</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>43893</v>
+        <v>43899</v>
       </c>
       <c r="M4" s="2">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="N4" s="2">
-        <v>43894</v>
+        <v>43900</v>
       </c>
       <c r="O4" s="2">
-        <v>43894</v>
+        <v>43901</v>
       </c>
       <c r="P4" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="Q4" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -667,49 +667,49 @@
         <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="F5">
-        <v>100088</v>
+        <v>80000</v>
       </c>
       <c r="G5">
         <v>15000</v>
       </c>
       <c r="H5">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="M5" s="2">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="N5" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="O5" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="P5" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="Q5" s="2">
-        <v>43919</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -720,49 +720,49 @@
         <v>46</v>
       </c>
       <c r="C6" s="2">
-        <v>43915</v>
+        <v>43908</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>43925</v>
+        <v>43918</v>
       </c>
       <c r="F6">
-        <v>163846</v>
+        <v>90000</v>
       </c>
       <c r="G6">
         <v>15000</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>43915</v>
+        <v>43910</v>
       </c>
       <c r="M6" s="2">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="N6" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="O6" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="P6" s="2">
-        <v>43927</v>
+        <v>43917</v>
       </c>
       <c r="Q6" s="2">
-        <v>43927</v>
+        <v>43914</v>
       </c>
     </row>
   </sheetData>

--- a/story_0/story0.xlsx
+++ b/story_0/story0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>MV</t>
   </si>
@@ -76,10 +76,13 @@
     <t>MV C</t>
   </si>
   <si>
+    <t>MV E</t>
+  </si>
+  <si>
+    <t>MV F</t>
+  </si>
+  <si>
     <t>MV D</t>
-  </si>
-  <si>
-    <t>MV E</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="M3" s="2">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="N3" s="2">
         <v>43898</v>
@@ -632,31 +635,31 @@
         <v>52</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>10000</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="2">
+        <v>43898</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43908</v>
+      </c>
+      <c r="N4" s="2">
         <v>43899</v>
-      </c>
-      <c r="M4" s="2">
-        <v>43909</v>
-      </c>
-      <c r="N4" s="2">
-        <v>43900</v>
       </c>
       <c r="O4" s="2">
         <v>43901</v>
       </c>
       <c r="P4" s="2">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="Q4" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -664,25 +667,25 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="F5">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="G5">
         <v>15000</v>
       </c>
       <c r="H5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -694,22 +697,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43903</v>
+        <v>43918</v>
       </c>
       <c r="M5" s="2">
-        <v>43913</v>
+        <v>43928</v>
       </c>
       <c r="N5" s="2">
-        <v>43907</v>
+        <v>43919</v>
       </c>
       <c r="O5" s="2">
-        <v>43907</v>
+        <v>43919</v>
       </c>
       <c r="P5" s="2">
-        <v>43913</v>
+        <v>43925</v>
       </c>
       <c r="Q5" s="2">
-        <v>43910</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -717,16 +720,16 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="F6">
         <v>90000</v>
@@ -735,7 +738,7 @@
         <v>15000</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -747,22 +750,75 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="M6" s="2">
+        <v>43928</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43919</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43919</v>
+      </c>
+      <c r="P6" s="2">
+        <v>43925</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43916</v>
+      </c>
+      <c r="F7">
+        <v>80000</v>
+      </c>
+      <c r="G7">
+        <v>15000</v>
+      </c>
+      <c r="H7">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <v>43920</v>
       </c>
-      <c r="N6" s="2">
-        <v>43911</v>
-      </c>
-      <c r="O6" s="2">
-        <v>43911</v>
-      </c>
-      <c r="P6" s="2">
-        <v>43917</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>43914</v>
+      <c r="M7" s="2">
+        <v>43930</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43926</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43926</v>
+      </c>
+      <c r="P7" s="2">
+        <v>43932</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>43932</v>
       </c>
     </row>
   </sheetData>

--- a/story_0/story0.xlsx
+++ b/story_0/story0.xlsx
@@ -76,13 +76,13 @@
     <t>MV C</t>
   </si>
   <si>
+    <t>MV D</t>
+  </si>
+  <si>
     <t>MV E</t>
   </si>
   <si>
     <t>MV F</t>
-  </si>
-  <si>
-    <t>MV D</t>
   </si>
 </sst>
 </file>
@@ -538,22 +538,22 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="M2" s="2">
-        <v>43904</v>
+        <v>43896</v>
       </c>
       <c r="N2" s="2">
-        <v>43895</v>
+        <v>43887</v>
       </c>
       <c r="O2" s="2">
-        <v>43895</v>
+        <v>43887</v>
       </c>
       <c r="P2" s="2">
-        <v>43900</v>
+        <v>43892</v>
       </c>
       <c r="Q2" s="2">
-        <v>43900</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="M3" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="N3" s="2">
         <v>43898</v>
@@ -635,13 +635,13 @@
         <v>52</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>10000</v>
       </c>
       <c r="K4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>43898</v>
@@ -653,13 +653,13 @@
         <v>43899</v>
       </c>
       <c r="O4" s="2">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="P4" s="2">
         <v>43904</v>
       </c>
       <c r="Q4" s="2">
-        <v>43906</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -667,25 +667,25 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="F5">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="G5">
         <v>15000</v>
       </c>
       <c r="H5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -697,22 +697,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="M5" s="2">
-        <v>43928</v>
+        <v>43916</v>
       </c>
       <c r="N5" s="2">
-        <v>43919</v>
+        <v>43907</v>
       </c>
       <c r="O5" s="2">
-        <v>43919</v>
+        <v>43907</v>
       </c>
       <c r="P5" s="2">
-        <v>43925</v>
+        <v>43913</v>
       </c>
       <c r="Q5" s="2">
-        <v>43925</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -720,16 +720,16 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="F6">
         <v>90000</v>
@@ -738,7 +738,7 @@
         <v>15000</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
+        <v>43908</v>
+      </c>
+      <c r="M6" s="2">
         <v>43918</v>
       </c>
-      <c r="M6" s="2">
-        <v>43928</v>
-      </c>
       <c r="N6" s="2">
-        <v>43919</v>
+        <v>43909</v>
       </c>
       <c r="O6" s="2">
-        <v>43919</v>
+        <v>43909</v>
       </c>
       <c r="P6" s="2">
-        <v>43925</v>
+        <v>43915</v>
       </c>
       <c r="Q6" s="2">
-        <v>43925</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -773,52 +773,52 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="F7">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="G7">
         <v>15000</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>10000</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L7" s="2">
+        <v>43909</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43910</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43914</v>
+      </c>
+      <c r="P7" s="2">
+        <v>43916</v>
+      </c>
+      <c r="Q7" s="2">
         <v>43920</v>
-      </c>
-      <c r="M7" s="2">
-        <v>43930</v>
-      </c>
-      <c r="N7" s="2">
-        <v>43926</v>
-      </c>
-      <c r="O7" s="2">
-        <v>43926</v>
-      </c>
-      <c r="P7" s="2">
-        <v>43932</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>43932</v>
       </c>
     </row>
   </sheetData>
